--- a/pred_ohlcv/54_21/2020-01-19 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 WAVES ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>27677.7206</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>27677.7206</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>27619.6206</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>27619.6206</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>27497.7106</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>27497.7106</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>27497.7106</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>27543.2752</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>27543.2752</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>31768.64660000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>32016.45340000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>56940.66149336</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>56866.11149336</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>56641.11149336</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>55500.56179335999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>55465.26569335999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>52523.26258099999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>56230.44438099999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>59004.58338099999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>58436.19208099999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>58440.19208099999</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>58882.64978099999</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>58882.64978099999</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>55111.64078099999</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>55411.80518099999</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>55381.68618099999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>55361.80518099999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>56502.31138099998</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>56692.12158099998</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>46222.94842808997</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>46222.94842808997</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>43393.12882808997</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>43393.12882808997</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>39086.19752808997</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>31800.49662808998</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>32013.61232808997</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>32013.61232808997</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>32013.61232808997</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>32299.50302808997</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>32589.50302808997</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>30312.81872808997</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>30312.81872808997</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 WAVES ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>27677.7206</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>27677.7206</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>27619.6206</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>27619.6206</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>27497.7106</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>27497.7106</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>27497.7106</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>27543.2752</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>27543.2752</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>27813.81660000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>31768.64660000001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>32016.45340000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>49964.15146329</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>56544.37609043</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>57754.33729043</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>54043.04799043</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>56940.66149336</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>56866.11149336</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>56866.11149336</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>56666.11149336</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>56641.11149336</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>55493.83959336</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>55500.56179335999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>55500.56179335999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>59004.58338099999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>58436.19208099999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>58440.19208099999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>58882.64978099999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>58882.64978099999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>55111.64078099999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>55411.80518099999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>55381.68618099999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>56502.31138099998</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>56692.12158099998</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>46222.94842808997</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>46222.94842808997</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>43393.12882808997</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>43393.12882808997</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>39086.19752808997</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>31800.49662808998</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>32013.61232808997</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>32013.61232808997</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>32013.61232808997</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>32299.50302808997</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>32589.50302808997</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>30312.81872808997</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>30312.81872808997</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
